--- a/pass.xlsx
+++ b/pass.xlsx
@@ -5,17 +5,37 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\분산시스템 기말 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
     <x:workbookView xWindow="0" yWindow="0" windowWidth="10068" windowHeight="6732" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <x:si>
+    <x:t>MD5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5AF1409B22F39CDFDA5906D61B6266A9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7D54F8AE69FE019A7D744338DE97885B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5F4DCC3B5AA765D61D8327DEB882CF99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69904329D6E12BFAF68602EAA1E4EEB1</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,15 +759,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:A5"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:cols>
+    <x:col min="1" max="1" width="35.53515625" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/pass.xlsx
+++ b/pass.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\분산시스템 기말 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="10068" windowHeight="6732" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="10068" windowHeight="6996" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,19 +21,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
-    <x:t>MD5</x:t>
+    <x:t>7D54F8AE69FE019A7D744338DE97885B</x:t>
   </x:si>
   <x:si>
     <x:t>5AF1409B22F39CDFDA5906D61B6266A9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7D54F8AE69FE019A7D744338DE97885B</x:t>
   </x:si>
   <x:si>
     <x:t>5F4DCC3B5AA765D61D8327DEB882CF99</x:t>
   </x:si>
   <x:si>
     <x:t>69904329D6E12BFAF68602EAA1E4EEB1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MD5</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -101,13 +101,19 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
-    <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
+    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -759,44 +765,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:A5"/>
+  <x:dimension ref="A1:A8"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A5"/>
+      <x:selection activeCell="A7" activeCellId="0" sqref="A7:A7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
-    <x:col min="1" max="1" width="35.53515625" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="35.53515625" style="2" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" t="s">
+      <x:c r="A1" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1">
-      <x:c r="A2" t="s">
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1">
-      <x:c r="A3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:1">
-      <x:c r="A4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="1"/>
+    </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/pass.xlsx
+++ b/pass.xlsx
@@ -537,13 +537,19 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>098F6BCD4621D373CADE4E832627B4F6</t>
         </is>
       </c>
     </row>
-    <row r="7"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FAD58DE7366495DB4650CFEFAC2FCD61</t>
+        </is>
+      </c>
+    </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
     </row>
